--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/25_Denizli_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/25_Denizli_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B07AB0DF-056E-4A79-A4D8-0104787C167E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A75F59C0-B1C1-42E6-A7A7-FE76D4AD50B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{86FDB4C3-4BDA-4A23-B3D9-7499681F265E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="643" xr2:uid="{A9D53823-8E2C-434E-9ECD-9A8D3C122C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{12043E44-F2DD-4052-A3A1-C48FC4E671EB}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2A33110E-BB75-4F58-A1B0-4F5A146D0368}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{BBCB7368-9829-49C7-BC88-318AA97ED598}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{ECA79323-AD51-421A-8BEC-15F065883D46}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{67CA4E3D-CEF4-4EFE-AB54-5BE68ED812EC}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{129BC9D1-4E58-4218-9FAE-6036677EBA5E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{F5CA0271-2EFA-49B0-9B6A-EF2EC9D5E696}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{734DEDA6-A499-41A6-A0BB-349F9986C7E1}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{A003D2AF-E6F1-486D-87A7-0F53E65E2CE5}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{8C49FDFB-F8CD-4FC6-AD30-F06DED41D987}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{3848DF8D-8D68-49A4-B0F9-BFA968464E53}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{5D8C9361-0385-4A14-B224-F29A6B84210D}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{B560AE4A-BF30-4AE7-934A-FA2DF3D2066F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{B17376D8-360A-4114-9867-FD32B734E71E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886BE75-4060-4BCF-A645-072C84D64CEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1726C6DB-B1FB-4416-80EC-98DDAFF20534}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2582,7 +2582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC0129-F013-40A5-9899-310099B1B2E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6030A2E-E40C-4FE5-A56B-7DDC6A8A58ED}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3877,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23694256-FCAC-47C0-905D-E47AFD6B44C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D57AE5B-3C77-4AFE-8001-E2A7B52B4B6F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5172,7 +5172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C765972-14A4-4093-B582-07387751EF22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF28F3F-960D-4F15-ACB6-4E40313EFBA7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6467,7 +6467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF0FAFD-9435-4C0D-B77B-C4E5F546CD66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6B611E-4112-458E-ADB8-FBCE8B1C9E63}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7772,7 +7772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98236C57-C85F-40BA-B1D7-7E875E442A4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4053BFE-B677-48F8-ACA1-5C2D584F1EC2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9075,7 +9075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AFBD418-1223-4695-BD47-5FA9E1563F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4810AC10-385A-4C50-A05B-A38741851CA5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10378,7 +10378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABCD6DB-6313-440A-9BE8-6569CAA5E8E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F52C56-CD22-4C38-A20E-6BB7D6A2EC50}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11683,7 +11683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295D6E57-A00C-47BA-B894-9ED23D2EA8BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D13FD-8874-4CC4-A1A9-EDE24DEE7204}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12986,7 +12986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E025D77-0AFC-42A4-8AD8-D12557C138FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EC36F3-0168-4C6D-9DBA-774E2F8FA362}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14285,7 +14285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE8F25F-8FAE-4607-8761-641A1D657A9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B528C-4AD9-494F-B97F-AA24F28CB2AD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15586,7 +15586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C72322AB-1122-479B-8E94-78C4F6CB1DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724A8343-C78A-4A3B-B60B-0B464DCCCD4E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
